--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5952516666666666</v>
+        <v>0.07287566666666666</v>
       </c>
       <c r="H2">
-        <v>1.785755</v>
+        <v>0.218627</v>
       </c>
       <c r="I2">
-        <v>0.935650775187706</v>
+        <v>0.6403049419813613</v>
       </c>
       <c r="J2">
-        <v>0.9356507751877059</v>
+        <v>0.6403049419813615</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2964503333333333</v>
+        <v>0.8232033333333333</v>
       </c>
       <c r="N2">
-        <v>0.889351</v>
+        <v>2.46961</v>
       </c>
       <c r="O2">
-        <v>0.01166952682487064</v>
+        <v>0.03174646187333627</v>
       </c>
       <c r="P2">
-        <v>0.01166952682487064</v>
+        <v>0.03174646187333627</v>
       </c>
       <c r="Q2">
-        <v>0.1764625550005555</v>
+        <v>0.05999149171888888</v>
       </c>
       <c r="R2">
-        <v>1.588162995005</v>
+        <v>0.5399234254699999</v>
       </c>
       <c r="S2">
-        <v>0.01091860181976394</v>
+        <v>0.02032741642792008</v>
       </c>
       <c r="T2">
-        <v>0.01091860181976394</v>
+        <v>0.02032741642792008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5952516666666666</v>
+        <v>0.07287566666666666</v>
       </c>
       <c r="H3">
-        <v>1.785755</v>
+        <v>0.218627</v>
       </c>
       <c r="I3">
-        <v>0.935650775187706</v>
+        <v>0.6403049419813613</v>
       </c>
       <c r="J3">
-        <v>0.9356507751877059</v>
+        <v>0.6403049419813615</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>34.831463</v>
       </c>
       <c r="O3">
-        <v>0.4570374259746593</v>
+        <v>0.4477531724126574</v>
       </c>
       <c r="P3">
-        <v>0.4570374259746593</v>
+        <v>0.4477531724126574</v>
       </c>
       <c r="Q3">
-        <v>6.91116213439611</v>
+        <v>0.8461220290334442</v>
       </c>
       <c r="R3">
-        <v>62.200459209565</v>
+        <v>7.615098261300999</v>
       </c>
       <c r="S3">
-        <v>0.4276274219029838</v>
+        <v>0.2866985690836571</v>
       </c>
       <c r="T3">
-        <v>0.4276274219029837</v>
+        <v>0.2866985690836571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5952516666666666</v>
+        <v>0.07287566666666666</v>
       </c>
       <c r="H4">
-        <v>1.785755</v>
+        <v>0.218627</v>
       </c>
       <c r="I4">
-        <v>0.935650775187706</v>
+        <v>0.6403049419813613</v>
       </c>
       <c r="J4">
-        <v>0.9356507751877059</v>
+        <v>0.6403049419813615</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.490588</v>
       </c>
       <c r="O4">
-        <v>0.5312930472004701</v>
+        <v>0.5205003657140063</v>
       </c>
       <c r="P4">
-        <v>0.5312930472004702</v>
+        <v>0.5205003657140063</v>
       </c>
       <c r="Q4">
-        <v>8.034029997104444</v>
+        <v>0.9835928647417777</v>
       </c>
       <c r="R4">
-        <v>72.30626997394</v>
+        <v>8.852335782676001</v>
       </c>
       <c r="S4">
-        <v>0.4971047514649583</v>
+        <v>0.3332789564697841</v>
       </c>
       <c r="T4">
-        <v>0.4971047514649584</v>
+        <v>0.3332789564697842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.122815</v>
       </c>
       <c r="I5">
-        <v>0.06434922481229403</v>
+        <v>0.3596950580186386</v>
       </c>
       <c r="J5">
-        <v>0.06434922481229402</v>
+        <v>0.3596950580186386</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2964503333333333</v>
+        <v>0.8232033333333333</v>
       </c>
       <c r="N5">
-        <v>0.889351</v>
+        <v>2.46961</v>
       </c>
       <c r="O5">
-        <v>0.01166952682487064</v>
+        <v>0.03174646187333627</v>
       </c>
       <c r="P5">
-        <v>0.01166952682487064</v>
+        <v>0.03174646187333627</v>
       </c>
       <c r="Q5">
-        <v>0.01213618256277778</v>
+        <v>0.03370057246111111</v>
       </c>
       <c r="R5">
-        <v>0.109225643065</v>
+        <v>0.30330515215</v>
       </c>
       <c r="S5">
-        <v>0.0007509250051066966</v>
+        <v>0.01141904544541619</v>
       </c>
       <c r="T5">
-        <v>0.0007509250051066966</v>
+        <v>0.01141904544541619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.122815</v>
       </c>
       <c r="I6">
-        <v>0.06434922481229403</v>
+        <v>0.3596950580186386</v>
       </c>
       <c r="J6">
-        <v>0.06434922481229402</v>
+        <v>0.3596950580186386</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>34.831463</v>
       </c>
       <c r="O6">
-        <v>0.4570374259746593</v>
+        <v>0.4477531724126574</v>
       </c>
       <c r="P6">
-        <v>0.4570374259746593</v>
+        <v>0.4477531724126574</v>
       </c>
       <c r="Q6">
         <v>0.4753140142605555</v>
       </c>
       <c r="R6">
-        <v>4.277826128345001</v>
+        <v>4.277826128345</v>
       </c>
       <c r="S6">
-        <v>0.02941000407167554</v>
+        <v>0.1610546033290003</v>
       </c>
       <c r="T6">
-        <v>0.02941000407167554</v>
+        <v>0.1610546033290003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.122815</v>
       </c>
       <c r="I7">
-        <v>0.06434922481229403</v>
+        <v>0.3596950580186386</v>
       </c>
       <c r="J7">
-        <v>0.06434922481229402</v>
+        <v>0.3596950580186386</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>40.490588</v>
       </c>
       <c r="O7">
-        <v>0.5312930472004701</v>
+        <v>0.5205003657140063</v>
       </c>
       <c r="P7">
-        <v>0.5312930472004702</v>
+        <v>0.5205003657140063</v>
       </c>
       <c r="Q7">
         <v>0.5525390628022222</v>
       </c>
       <c r="R7">
-        <v>4.972851565220001</v>
+        <v>4.97285156522</v>
       </c>
       <c r="S7">
-        <v>0.0341882957355118</v>
+        <v>0.1872214092442221</v>
       </c>
       <c r="T7">
-        <v>0.0341882957355118</v>
+        <v>0.1872214092442221</v>
       </c>
     </row>
   </sheetData>
